--- a/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.0.xlsx
@@ -34,93 +34,96 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>היי.</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t>אהלן מה נשמע?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר, </t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>נו מה קורה אתו?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>מה שלומך?</t>
+  </si>
+  <si>
+    <t>איפה הוא?</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>שמי דוק דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
+  </si>
+  <si>
+    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>בוא נישב רגע, בוא נישב רגע.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אה?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>היי.</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t>אהלן מה נשמע?</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר, </t>
-  </si>
-  <si>
-    <t>נו מה קורה אתו?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>מה שלומך?</t>
-  </si>
-  <si>
-    <t>איפה הוא?</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>שמי דוק דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
-  </si>
-  <si>
-    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
+    <t>רגע, הוא אכל משהו הוא שתה?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>יש כאן עוד משהו אתך?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>לא, לא, לא.</t>
   </si>
   <si>
     <t>gives-other</t>
   </si>
   <si>
-    <t>בוא נישב רגע, בוא נישב רגע.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>אה?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>רגע, הוא אכל משהו הוא שתה?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>יש כאן עוד משהו אתך?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>לא, לא, לא.</t>
-  </si>
-  <si>
     <t>אתה זה שהביא אותו למיון?</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>אוקי הוא בכה תגיד?</t>
   </si>
   <si>
-    <t>concern</t>
-  </si>
-  <si>
     <t>אה.</t>
   </si>
   <si>
@@ -346,46 +346,46 @@
     <t xml:space="preserve"> אז הילד שלך הוא ילד צעיר בן חמש</t>
   </si>
   <si>
+    <t xml:space="preserve">מבחינת המחלה </t>
+  </si>
+  <si>
+    <t>אתה איתי?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>אני לא זוכר את השם שלך אתה יכול להזכיר לי את השם שלך?</t>
+  </si>
+  <si>
+    <t>יוני.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יוני, אה אני רוצה קצת לעזור לך ולהסביר לך מה באמת המשמעות </t>
+  </si>
+  <si>
+    <t>לדעתי יכול להיות שאתה מכיר באמת מקרים של אנשים שלא מאזנים את עצמם ולקחו את זה לצורה הגרוע של המחלה.</t>
+  </si>
+  <si>
+    <t>(לא נשמע) ילד בן חמש לתוך המחלה הנוראית הזאתי זה לא אני ואתה אני יודע בדיוק מה עושים עם סכרת.</t>
+  </si>
+  <si>
+    <t>מה עושים עם סכרת?</t>
+  </si>
+  <si>
+    <t>מטפלים בזה כל היום.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא מטפלים בזה כל היום, </t>
+  </si>
+  <si>
+    <t>היום יש משאבות שעושות את העבודה בשבילך צריך לבדוק שיהיה מאוזן ושהילד יהיה מודע למקרים שבהם הוא מרגיש סחרחורות או מצבים מסוימים,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר מה שתחשוב שהצעד הבא שנעשה כדי שתפגוש דבר ראשון ילד שחלה בסוכרת נעורים גם בגיל שלך והיום הוא בן שמונה עשרה, עשרים ותשאל אותו מה זה מנע ממנו בחיים, </t>
+  </si>
+  <si>
     <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מבחינת המחלה </t>
-  </si>
-  <si>
-    <t>אתה איתי?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>אני לא זוכר את השם שלך אתה יכול להזכיר לי את השם שלך?</t>
-  </si>
-  <si>
-    <t>יוני.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוני, אה אני רוצה קצת לעזור לך ולהסביר לך מה באמת המשמעות </t>
-  </si>
-  <si>
-    <t>לדעתי יכול להיות שאתה מכיר באמת מקרים של אנשים שלא מאזנים את עצמם ולקחו את זה לצורה הגרוע של המחלה.</t>
-  </si>
-  <si>
-    <t>(לא נשמע) ילד בן חמש לתוך המחלה הנוראית הזאתי זה לא אני ואתה אני יודע בדיוק מה עושים עם סכרת.</t>
-  </si>
-  <si>
-    <t>מה עושים עם סכרת?</t>
-  </si>
-  <si>
-    <t>מטפלים בזה כל היום.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא מטפלים בזה כל היום, </t>
-  </si>
-  <si>
-    <t>היום יש משאבות שעושות את העבודה בשבילך צריך לבדוק שיהיה מאוזן ושהילד יהיה מודע למקרים שבהם הוא מרגיש סחרחורות או מצבים מסוימים,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר מה שתחשוב שהצעד הבא שנעשה כדי שתפגוש דבר ראשון ילד שחלה בסוכרת נעורים גם בגיל שלך והיום הוא בן שמונה עשרה, עשרים ותשאל אותו מה זה מנע ממנו בחיים, </t>
   </si>
   <si>
     <t xml:space="preserve">אה מכיר אנשים שעשו את זה ופשוט ראו איך הילדים האלה נראים בהמשך התהליך, בסוף התהליך והגיעו למסקנה שחיים עם זה וחיים עם זה גם בצורה טובה, </t>
@@ -760,43 +760,43 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -805,40 +805,40 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -847,54 +847,54 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -903,119 +903,119 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1023,60 +1023,60 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1085,54 +1085,54 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1141,21 +1141,21 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1222,10 +1222,10 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1320,10 +1320,10 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1331,13 +1331,13 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1348,24 +1348,24 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1393,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1404,10 +1404,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1463,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1477,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1505,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1575,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1586,10 +1586,10 @@
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1600,10 +1600,10 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1642,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1659,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1715,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1729,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1743,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1782,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1796,10 +1796,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1813,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1855,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1866,10 +1866,10 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1894,10 +1894,10 @@
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1922,10 +1922,10 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1961,27 +1961,27 @@
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1992,10 +1992,10 @@
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2006,155 +2006,155 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" t="s">
         <v>112</v>
       </c>
-      <c r="B93" t="s">
-        <v>113</v>
-      </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
@@ -2163,21 +2163,21 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" t="s">
         <v>123</v>
       </c>
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2202,10 +2202,10 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
